--- a/ecological-modeling/mcnulty-datasets/McNulty_data_source.xlsx
+++ b/ecological-modeling/mcnulty-datasets/McNulty_data_source.xlsx
@@ -1777,7 +1777,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.23"/>
@@ -18341,7 +18341,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.13"/>
@@ -34905,7 +34905,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.47"/>
   </cols>
@@ -39233,7 +39233,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.59"/>
   </cols>
@@ -43561,7 +43561,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -43823,7 +43823,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -43844,10 +43844,10 @@
         <v>453</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -43858,10 +43858,10 @@
         <v>453</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
@@ -43872,10 +43872,10 @@
         <v>453</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -43886,10 +43886,10 @@
         <v>453</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
@@ -43900,10 +43900,10 @@
         <v>453</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -43914,10 +43914,10 @@
         <v>453</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>6</v>
@@ -43928,10 +43928,10 @@
         <v>453</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -43942,10 +43942,10 @@
         <v>454</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>8</v>
@@ -43956,10 +43956,10 @@
         <v>454</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>9</v>
@@ -43970,10 +43970,10 @@
         <v>454</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -43984,10 +43984,10 @@
         <v>454</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>11</v>
@@ -43998,10 +43998,10 @@
         <v>454</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>12</v>
@@ -44012,10 +44012,10 @@
         <v>454</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>13</v>
@@ -44026,10 +44026,10 @@
         <v>454</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>14</v>
@@ -44040,10 +44040,10 @@
         <v>454</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>15</v>
@@ -44071,7 +44071,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="295.9"/>
